--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1881,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43900.0</v>
+        <v>43901.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1893,7 +1893,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43901.0</v>
+        <v>43902.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1909,7 +1909,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43904.0</v>
+        <v>43905.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1921,7 +1921,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1881,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43901.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1893,7 +1893,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43902.0</v>
+        <v>43904.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1909,7 +1909,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43905.0</v>
+        <v>43907.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1921,7 +1921,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1881,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43903.0</v>
+        <v>43907.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1893,7 +1893,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43904.0</v>
+        <v>43908.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1909,7 +1909,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43907.0</v>
+        <v>43911.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1921,7 +1921,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43913.0</v>
+        <v>43917.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -519,6 +519,15 @@
   </si>
   <si>
     <t>GRO</t>
+  </si>
+  <si>
+    <t>440000000</t>
+  </si>
+  <si>
+    <t>440001111</t>
+  </si>
+  <si>
+    <t>4400022222</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1325,6 +1334,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1734,7 +1745,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
@@ -1881,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43907.0</v>
+        <v>43908.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1893,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43908.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1909,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43911.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1921,7 +1932,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43917.0</v>
+        <v>43918.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>
@@ -2195,9 +2206,9 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,8 +2244,8 @@
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="4">
-        <v>440000000</v>
+      <c r="B3" s="107" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>99</v>
@@ -2250,8 +2261,8 @@
       <c r="A4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="7">
-        <v>4400022222</v>
+      <c r="B4" s="108" t="s">
+        <v>144</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>100</v>
@@ -2267,8 +2278,8 @@
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="7">
-        <v>440001111</v>
+      <c r="B5" s="108" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>101</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43908.0</v>
+        <v>43910.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>138</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43918.0</v>
+        <v>43920.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -1241,6 +1241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,8 +1336,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1745,9 +1745,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,42 +1772,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="88" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="85" t="s">
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="79" t="s">
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82" t="s">
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="84"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="86"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43910.0</v>
+        <v>43918.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43911.0</v>
+        <v>43919.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43914.0</v>
+        <v>43922.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1929,10 +1929,10 @@
         <v>111</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43920.0</v>
+        <v>43928.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>
@@ -2206,7 +2206,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -2221,30 +2221,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="94" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="76" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2261,7 +2261,7 @@
       <c r="A4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="77" t="s">
         <v>144</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2278,7 +2278,7 @@
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="77" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2345,44 +2345,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="96" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -16211,7 +16211,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16226,48 +16226,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="100" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -33023,36 +33023,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="107" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>136</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>136</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43931.0</v>
+        <v>43942.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>
@@ -1960,40 +1960,60 @@
       <c r="A4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="42" t="n">
+        <v>43930.0</v>
+      </c>
+      <c r="C4" s="62" t="n">
+        <v>0.4791666666666667</v>
+      </c>
       <c r="D4" s="62" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="F4" s="44" t="n">
+        <v>43931.0</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>0.3958333333333333</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>108</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="47" t="n">
+        <v>43934.0</v>
+      </c>
+      <c r="K4" s="57" t="n">
+        <v>0.6944444444444444</v>
+      </c>
       <c r="L4" s="13" t="s">
         <v>107</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="46" t="n">
+        <v>43936.0</v>
+      </c>
+      <c r="O4" s="54" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="P4" s="15" t="s">
         <v>112</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="52"/>
+      <c r="R4" s="51" t="n">
+        <v>43942.0</v>
+      </c>
+      <c r="S4" s="52" t="n">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="T4" s="38" t="s">
         <v>97</v>
       </c>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>136</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43942.0</v>
+        <v>43945.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43930.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C4" s="62" t="n">
         <v>0.4791666666666667</v>
@@ -1973,7 +1973,7 @@
         <v>115</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.3958333333333333</v>
@@ -1985,7 +1985,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K4" s="57" t="n">
         <v>0.6944444444444444</v>
@@ -1997,7 +1997,7 @@
         <v>113</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O4" s="54" t="n">
         <v>0.7083333333333334</v>
@@ -2009,7 +2009,7 @@
         <v>139</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43942.0</v>
+        <v>43945.0</v>
       </c>
       <c r="S4" s="52" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="53" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C3" s="64" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>114</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>113</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="55" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>136</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43945.0</v>
+        <v>43951.0</v>
       </c>
       <c r="S3" s="75" t="n">
         <v>0.4166666666666667</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43933.0</v>
+        <v>43939.0</v>
       </c>
       <c r="C4" s="62" t="n">
         <v>0.4791666666666667</v>
@@ -1973,7 +1973,7 @@
         <v>115</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.3958333333333333</v>
@@ -1985,7 +1985,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K4" s="57" t="n">
         <v>0.6944444444444444</v>
@@ -1997,7 +1997,7 @@
         <v>113</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O4" s="54" t="n">
         <v>0.7083333333333334</v>
@@ -2009,7 +2009,7 @@
         <v>139</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43945.0</v>
+        <v>43951.0</v>
       </c>
       <c r="S4" s="52" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTemplateTest2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5852BDF5-9D20-467F-8335-3535C1576CEE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -533,7 +534,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1741,34 +1742,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="R3" activeCellId="4" sqref="B3:B4 F3:F4 J4 N3:N4 R3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,10 +1892,10 @@
       <c r="A3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="53" t="n">
-        <v>43941.0</v>
+      <c r="B3" s="53">
+        <v>44002</v>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="64">
         <v>0.4375</v>
       </c>
       <c r="D3" s="64" t="s">
@@ -1903,11 +1904,11 @@
       <c r="E3" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="43" t="n">
-        <v>43942.0</v>
+      <c r="F3" s="43">
+        <v>44003</v>
       </c>
-      <c r="G3" s="45" t="n">
-        <v>0.6458333333333334</v>
+      <c r="G3" s="45">
+        <v>0.64583333333333337</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>141</v>
@@ -1919,11 +1920,11 @@
       <c r="M3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="49" t="n">
-        <v>43945.0</v>
+      <c r="N3" s="49">
+        <v>44006</v>
       </c>
-      <c r="O3" s="55" t="n">
-        <v>0.4583333333333333</v>
+      <c r="O3" s="55">
+        <v>0.45833333333333331</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>111</v>
@@ -1931,11 +1932,11 @@
       <c r="Q3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="50" t="n">
-        <v>43951.0</v>
+      <c r="R3" s="50">
+        <v>44012</v>
       </c>
-      <c r="S3" s="75" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S3" s="75">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T3" s="37" t="s">
         <v>96</v>
@@ -1960,11 +1961,11 @@
       <c r="A4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="42" t="n">
-        <v>43939.0</v>
+      <c r="B4" s="42">
+        <v>44000</v>
       </c>
-      <c r="C4" s="62" t="n">
-        <v>0.4791666666666667</v>
+      <c r="C4" s="62">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>105</v>
@@ -1972,11 +1973,11 @@
       <c r="E4" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="44" t="n">
-        <v>43940.0</v>
+      <c r="F4" s="44">
+        <v>44001</v>
       </c>
-      <c r="G4" s="45" t="n">
-        <v>0.3958333333333333</v>
+      <c r="G4" s="45">
+        <v>0.39583333333333331</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>108</v>
@@ -1984,11 +1985,11 @@
       <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="47" t="n">
-        <v>43943.0</v>
+      <c r="J4" s="47">
+        <v>44004</v>
       </c>
-      <c r="K4" s="57" t="n">
-        <v>0.6944444444444444</v>
+      <c r="K4" s="57">
+        <v>0.69444444444444442</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>107</v>
@@ -1996,11 +1997,11 @@
       <c r="M4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="46" t="n">
-        <v>43945.0</v>
+      <c r="N4" s="46">
+        <v>44006</v>
       </c>
-      <c r="O4" s="54" t="n">
-        <v>0.7083333333333334</v>
+      <c r="O4" s="54">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>112</v>
@@ -2008,11 +2009,11 @@
       <c r="Q4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="51" t="n">
-        <v>43951.0</v>
+      <c r="R4" s="51">
+        <v>44012</v>
       </c>
-      <c r="S4" s="52" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S4" s="52">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T4" s="38" t="s">
         <v>97</v>
@@ -2222,9 +2223,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2233,11 +2234,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,7 +2313,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -2323,7 +2324,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2422F177-28FB-44CF-A4DE-B7E2DAB6F9D1}">
@@ -2345,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I1247"/>
   <sheetViews>
@@ -2356,12 +2357,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -16208,7 +16209,7 @@
       <c r="I1247" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
@@ -16225,7 +16226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:J1387"/>
   <sheetViews>
@@ -16236,13 +16237,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -33010,7 +33011,7 @@
       <c r="J1387" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -33028,9 +33029,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -33038,8 +33039,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33254,11 +33255,11 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
